--- a/Traning Set.xlsx
+++ b/Traning Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandu\Desktop\PC_Backup\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417982A5-4244-4AD8-948C-664E7D86D78B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ECB3F6-4165-41A4-BDB5-6745BA384A95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{C249E753-A490-4574-AB55-5713FC600D24}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23200" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23700" uniqueCount="238">
   <si>
     <t>w</t>
   </si>
@@ -733,12 +733,27 @@
   <si>
     <t>oe</t>
   </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>*a</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>l%S</t>
+  </si>
+  <si>
+    <t>hq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="223" x14ac:knownFonts="1">
+  <fonts count="231" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2096,6 +2111,62 @@
       <color theme="1"/>
       <name val="DL-Manel-bold.-x"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="DL-Thisaru"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="DL-Thisaru"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="DL-Thisaru"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="DL-Thisaru"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="DL-Biso."/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="DL-Biso."/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="DL-Biso."/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="DL-Biso."/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2117,7 +2188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3094,6 +3165,102 @@
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3410,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F61FD8-77BE-4C0F-934D-412F15239764}">
   <dimension ref="A1:IS100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="GI97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="IC37" sqref="IC37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="HT97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="IK102" sqref="IK102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4153,6 +4320,21 @@
       <c r="IH1" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="II1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM1" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="2" spans="1:253" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4881,11 +5063,21 @@
       <c r="IH2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="II2" s="4"/>
-      <c r="IJ2" s="4"/>
-      <c r="IK2" s="4"/>
-      <c r="IL2" s="4"/>
-      <c r="IM2" s="4"/>
+      <c r="II2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM2" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="IN2" s="4"/>
       <c r="IO2" s="4"/>
       <c r="IP2" s="4"/>
@@ -5620,11 +5812,21 @@
       <c r="IH3" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="II3" s="8"/>
-      <c r="IJ3" s="8"/>
-      <c r="IK3" s="8"/>
-      <c r="IL3" s="8"/>
-      <c r="IM3" s="8"/>
+      <c r="II3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM3" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="IN3" s="8"/>
       <c r="IO3" s="8"/>
       <c r="IP3" s="8"/>
@@ -6359,11 +6561,21 @@
       <c r="IH4" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="II4" s="12"/>
-      <c r="IJ4" s="12"/>
-      <c r="IK4" s="12"/>
-      <c r="IL4" s="12"/>
-      <c r="IM4" s="12"/>
+      <c r="II4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK4" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL4" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM4" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="IN4" s="12"/>
       <c r="IO4" s="12"/>
       <c r="IP4" s="12"/>
@@ -7098,11 +7310,21 @@
       <c r="IH5" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="II5" s="19"/>
-      <c r="IJ5" s="19"/>
-      <c r="IK5" s="19"/>
-      <c r="IL5" s="19"/>
-      <c r="IM5" s="19"/>
+      <c r="II5" s="326" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ5" s="326" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK5" s="326" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL5" s="326" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM5" s="326" t="s">
+        <v>237</v>
+      </c>
       <c r="IN5" s="19"/>
       <c r="IO5" s="19"/>
       <c r="IP5" s="19"/>
@@ -7837,11 +8059,21 @@
       <c r="IH6" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="II6" s="24"/>
-      <c r="IJ6" s="24"/>
-      <c r="IK6" s="24"/>
-      <c r="IL6" s="24"/>
-      <c r="IM6" s="24"/>
+      <c r="II6" s="327" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ6" s="327" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK6" s="327" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL6" s="327" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM6" s="327" t="s">
+        <v>237</v>
+      </c>
       <c r="IN6" s="24"/>
       <c r="IO6" s="24"/>
       <c r="IP6" s="24"/>
@@ -8576,11 +8808,21 @@
       <c r="IH7" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="II7" s="28"/>
-      <c r="IJ7" s="28"/>
-      <c r="IK7" s="28"/>
-      <c r="IL7" s="28"/>
-      <c r="IM7" s="28"/>
+      <c r="II7" s="328" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ7" s="328" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK7" s="328" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL7" s="328" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM7" s="328" t="s">
+        <v>237</v>
+      </c>
       <c r="IN7" s="28"/>
       <c r="IO7" s="28"/>
       <c r="IP7" s="28"/>
@@ -9315,11 +9557,21 @@
       <c r="IH8" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="II8" s="32"/>
-      <c r="IJ8" s="32"/>
-      <c r="IK8" s="32"/>
-      <c r="IL8" s="32"/>
-      <c r="IM8" s="32"/>
+      <c r="II8" s="329" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ8" s="329" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK8" s="329" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL8" s="329" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM8" s="329" t="s">
+        <v>237</v>
+      </c>
       <c r="IN8" s="32"/>
       <c r="IO8" s="32"/>
       <c r="IP8" s="32"/>
@@ -10054,11 +10306,21 @@
       <c r="IH9" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="II9" s="36"/>
-      <c r="IJ9" s="36"/>
-      <c r="IK9" s="36"/>
-      <c r="IL9" s="36"/>
-      <c r="IM9" s="36"/>
+      <c r="II9" s="330" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ9" s="330" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK9" s="330" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL9" s="330" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM9" s="330" t="s">
+        <v>237</v>
+      </c>
       <c r="IN9" s="36"/>
       <c r="IO9" s="36"/>
       <c r="IP9" s="36"/>
@@ -10793,11 +11055,21 @@
       <c r="IH10" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="II10" s="41"/>
-      <c r="IJ10" s="41"/>
-      <c r="IK10" s="41"/>
-      <c r="IL10" s="41"/>
-      <c r="IM10" s="41"/>
+      <c r="II10" s="331" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ10" s="331" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK10" s="331" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL10" s="331" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM10" s="331" t="s">
+        <v>237</v>
+      </c>
       <c r="IN10" s="41"/>
       <c r="IO10" s="41"/>
       <c r="IP10" s="41"/>
@@ -11532,11 +11804,21 @@
       <c r="IH11" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="II11" s="46"/>
-      <c r="IJ11" s="46"/>
-      <c r="IK11" s="46"/>
-      <c r="IL11" s="46"/>
-      <c r="IM11" s="46"/>
+      <c r="II11" s="332" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ11" s="332" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK11" s="332" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL11" s="332" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM11" s="332" t="s">
+        <v>237</v>
+      </c>
       <c r="IN11" s="46"/>
       <c r="IO11" s="46"/>
       <c r="IP11" s="46"/>
@@ -12271,11 +12553,21 @@
       <c r="IH12" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="II12" s="51"/>
-      <c r="IJ12" s="51"/>
-      <c r="IK12" s="51"/>
-      <c r="IL12" s="51"/>
-      <c r="IM12" s="51"/>
+      <c r="II12" s="333" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ12" s="333" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK12" s="333" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL12" s="333" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM12" s="333" t="s">
+        <v>237</v>
+      </c>
       <c r="IN12" s="51"/>
       <c r="IO12" s="51"/>
       <c r="IP12" s="51"/>
@@ -13010,11 +13302,21 @@
       <c r="IH13" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="II13" s="56"/>
-      <c r="IJ13" s="56"/>
-      <c r="IK13" s="56"/>
-      <c r="IL13" s="56"/>
-      <c r="IM13" s="56"/>
+      <c r="II13" s="334" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ13" s="334" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK13" s="334" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL13" s="334" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM13" s="334" t="s">
+        <v>237</v>
+      </c>
       <c r="IN13" s="56"/>
       <c r="IO13" s="56"/>
       <c r="IP13" s="56"/>
@@ -13749,11 +14051,21 @@
       <c r="IH14" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="II14" s="61"/>
-      <c r="IJ14" s="61"/>
-      <c r="IK14" s="61"/>
-      <c r="IL14" s="61"/>
-      <c r="IM14" s="61"/>
+      <c r="II14" s="335" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ14" s="335" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK14" s="335" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL14" s="335" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM14" s="335" t="s">
+        <v>237</v>
+      </c>
       <c r="IN14" s="61"/>
       <c r="IO14" s="61"/>
       <c r="IP14" s="61"/>
@@ -14488,11 +14800,21 @@
       <c r="IH15" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="II15" s="66"/>
-      <c r="IJ15" s="66"/>
-      <c r="IK15" s="66"/>
-      <c r="IL15" s="66"/>
-      <c r="IM15" s="66"/>
+      <c r="II15" s="336" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ15" s="336" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK15" s="336" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL15" s="336" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM15" s="336" t="s">
+        <v>237</v>
+      </c>
       <c r="IN15" s="66"/>
       <c r="IO15" s="66"/>
       <c r="IP15" s="66"/>
@@ -15227,11 +15549,21 @@
       <c r="IH16" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="II16" s="71"/>
-      <c r="IJ16" s="71"/>
-      <c r="IK16" s="71"/>
-      <c r="IL16" s="71"/>
-      <c r="IM16" s="71"/>
+      <c r="II16" s="337" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ16" s="337" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK16" s="337" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL16" s="337" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM16" s="337" t="s">
+        <v>237</v>
+      </c>
       <c r="IN16" s="71"/>
       <c r="IO16" s="71"/>
       <c r="IP16" s="71"/>
@@ -15966,11 +16298,21 @@
       <c r="IH17" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="II17" s="76"/>
-      <c r="IJ17" s="76"/>
-      <c r="IK17" s="76"/>
-      <c r="IL17" s="76"/>
-      <c r="IM17" s="76"/>
+      <c r="II17" s="354" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ17" s="338" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK17" s="338" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL17" s="338" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM17" s="338" t="s">
+        <v>237</v>
+      </c>
       <c r="IN17" s="76"/>
       <c r="IO17" s="76"/>
       <c r="IP17" s="76"/>
@@ -16705,11 +17047,21 @@
       <c r="IH18" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="II18" s="81"/>
-      <c r="IJ18" s="81"/>
-      <c r="IK18" s="81"/>
-      <c r="IL18" s="81"/>
-      <c r="IM18" s="81"/>
+      <c r="II18" s="355" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ18" s="339" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK18" s="339" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL18" s="339" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM18" s="339" t="s">
+        <v>237</v>
+      </c>
       <c r="IN18" s="81"/>
       <c r="IO18" s="81"/>
       <c r="IP18" s="81"/>
@@ -17444,11 +17796,21 @@
       <c r="IH19" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="II19" s="86"/>
-      <c r="IJ19" s="86"/>
-      <c r="IK19" s="86"/>
-      <c r="IL19" s="86"/>
-      <c r="IM19" s="86"/>
+      <c r="II19" s="356" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ19" s="340" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK19" s="340" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL19" s="340" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM19" s="340" t="s">
+        <v>237</v>
+      </c>
       <c r="IN19" s="86"/>
       <c r="IO19" s="86"/>
       <c r="IP19" s="86"/>
@@ -18183,11 +18545,21 @@
       <c r="IH20" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="II20" s="91"/>
-      <c r="IJ20" s="91"/>
-      <c r="IK20" s="91"/>
-      <c r="IL20" s="91"/>
-      <c r="IM20" s="91"/>
+      <c r="II20" s="357" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ20" s="341" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK20" s="341" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL20" s="341" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM20" s="341" t="s">
+        <v>237</v>
+      </c>
       <c r="IN20" s="91"/>
       <c r="IO20" s="91"/>
       <c r="IP20" s="91"/>
@@ -18922,11 +19294,21 @@
       <c r="IH21" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="II21" s="96"/>
-      <c r="IJ21" s="96"/>
-      <c r="IK21" s="96"/>
-      <c r="IL21" s="96"/>
-      <c r="IM21" s="96"/>
+      <c r="II21" s="342" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ21" s="342" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK21" s="342" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL21" s="342" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM21" s="342" t="s">
+        <v>237</v>
+      </c>
       <c r="IN21" s="96"/>
       <c r="IO21" s="96"/>
       <c r="IP21" s="96"/>
@@ -19661,11 +20043,21 @@
       <c r="IH22" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="II22" s="101"/>
-      <c r="IJ22" s="101"/>
-      <c r="IK22" s="101"/>
-      <c r="IL22" s="101"/>
-      <c r="IM22" s="101"/>
+      <c r="II22" s="343" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ22" s="343" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK22" s="343" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL22" s="343" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM22" s="343" t="s">
+        <v>237</v>
+      </c>
       <c r="IN22" s="101"/>
       <c r="IO22" s="101"/>
       <c r="IP22" s="101"/>
@@ -20400,11 +20792,21 @@
       <c r="IH23" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="II23" s="106"/>
-      <c r="IJ23" s="106"/>
-      <c r="IK23" s="106"/>
-      <c r="IL23" s="106"/>
-      <c r="IM23" s="106"/>
+      <c r="II23" s="344" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ23" s="344" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK23" s="344" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL23" s="344" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM23" s="344" t="s">
+        <v>237</v>
+      </c>
       <c r="IN23" s="106"/>
       <c r="IO23" s="106"/>
       <c r="IP23" s="106"/>
@@ -21139,11 +21541,21 @@
       <c r="IH24" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="II24" s="111"/>
-      <c r="IJ24" s="111"/>
-      <c r="IK24" s="111"/>
-      <c r="IL24" s="111"/>
-      <c r="IM24" s="111"/>
+      <c r="II24" s="345" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ24" s="345" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK24" s="345" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL24" s="345" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM24" s="345" t="s">
+        <v>237</v>
+      </c>
       <c r="IN24" s="111"/>
       <c r="IO24" s="111"/>
       <c r="IP24" s="111"/>
@@ -21878,11 +22290,21 @@
       <c r="IH25" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="II25" s="116"/>
-      <c r="IJ25" s="116"/>
-      <c r="IK25" s="116"/>
-      <c r="IL25" s="116"/>
-      <c r="IM25" s="116"/>
+      <c r="II25" s="346" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ25" s="346" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK25" s="346" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL25" s="346" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM25" s="346" t="s">
+        <v>237</v>
+      </c>
       <c r="IN25" s="116"/>
       <c r="IO25" s="116"/>
       <c r="IP25" s="116"/>
@@ -22617,11 +23039,21 @@
       <c r="IH26" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="II26" s="121"/>
-      <c r="IJ26" s="121"/>
-      <c r="IK26" s="121"/>
-      <c r="IL26" s="121"/>
-      <c r="IM26" s="121"/>
+      <c r="II26" s="347" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ26" s="347" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK26" s="347" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL26" s="347" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM26" s="347" t="s">
+        <v>237</v>
+      </c>
       <c r="IN26" s="121"/>
       <c r="IO26" s="121"/>
       <c r="IP26" s="121"/>
@@ -23356,11 +23788,21 @@
       <c r="IH27" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="II27" s="126"/>
-      <c r="IJ27" s="126"/>
-      <c r="IK27" s="126"/>
-      <c r="IL27" s="126"/>
-      <c r="IM27" s="126"/>
+      <c r="II27" s="348" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ27" s="348" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK27" s="348" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL27" s="348" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM27" s="348" t="s">
+        <v>237</v>
+      </c>
       <c r="IN27" s="126"/>
       <c r="IO27" s="126"/>
       <c r="IP27" s="126"/>
@@ -24095,11 +24537,21 @@
       <c r="IH28" s="133" t="s">
         <v>232</v>
       </c>
-      <c r="II28" s="131"/>
-      <c r="IJ28" s="131"/>
-      <c r="IK28" s="131"/>
-      <c r="IL28" s="131"/>
-      <c r="IM28" s="131"/>
+      <c r="II28" s="349" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ28" s="349" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK28" s="349" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL28" s="349" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM28" s="349" t="s">
+        <v>237</v>
+      </c>
       <c r="IN28" s="131"/>
       <c r="IO28" s="131"/>
       <c r="IP28" s="131"/>
@@ -24834,11 +25286,21 @@
       <c r="IH29" s="137" t="s">
         <v>232</v>
       </c>
-      <c r="II29" s="135"/>
-      <c r="IJ29" s="135"/>
-      <c r="IK29" s="135"/>
-      <c r="IL29" s="135"/>
-      <c r="IM29" s="135"/>
+      <c r="II29" s="137" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ29" s="137" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK29" s="137" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL29" s="137" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM29" s="137" t="s">
+        <v>237</v>
+      </c>
       <c r="IN29" s="135"/>
       <c r="IO29" s="135"/>
       <c r="IP29" s="135"/>
@@ -25573,11 +26035,21 @@
       <c r="IH30" s="141" t="s">
         <v>232</v>
       </c>
-      <c r="II30" s="139"/>
-      <c r="IJ30" s="139"/>
-      <c r="IK30" s="139"/>
-      <c r="IL30" s="139"/>
-      <c r="IM30" s="139"/>
+      <c r="II30" s="141" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ30" s="141" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK30" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL30" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM30" s="141" t="s">
+        <v>237</v>
+      </c>
       <c r="IN30" s="139"/>
       <c r="IO30" s="139"/>
       <c r="IP30" s="139"/>
@@ -26312,11 +26784,21 @@
       <c r="IH31" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="II31" s="143"/>
-      <c r="IJ31" s="143"/>
-      <c r="IK31" s="143"/>
-      <c r="IL31" s="143"/>
-      <c r="IM31" s="143"/>
+      <c r="II31" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ31" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK31" s="145" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL31" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM31" s="145" t="s">
+        <v>237</v>
+      </c>
       <c r="IN31" s="143"/>
       <c r="IO31" s="143"/>
       <c r="IP31" s="143"/>
@@ -27051,11 +27533,21 @@
       <c r="IH32" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="II32" s="147"/>
-      <c r="IJ32" s="147"/>
-      <c r="IK32" s="147"/>
-      <c r="IL32" s="147"/>
-      <c r="IM32" s="147"/>
+      <c r="II32" s="149" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ32" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK32" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL32" s="149" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM32" s="149" t="s">
+        <v>237</v>
+      </c>
       <c r="IN32" s="147"/>
       <c r="IO32" s="147"/>
       <c r="IP32" s="147"/>
@@ -27790,11 +28282,21 @@
       <c r="IH33" s="153" t="s">
         <v>232</v>
       </c>
-      <c r="II33" s="151"/>
-      <c r="IJ33" s="151"/>
-      <c r="IK33" s="151"/>
-      <c r="IL33" s="151"/>
-      <c r="IM33" s="151"/>
+      <c r="II33" s="153" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ33" s="153" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK33" s="153" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL33" s="153" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM33" s="153" t="s">
+        <v>237</v>
+      </c>
       <c r="IN33" s="151"/>
       <c r="IO33" s="151"/>
       <c r="IP33" s="151"/>
@@ -28529,11 +29031,21 @@
       <c r="IH34" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="II34" s="155"/>
-      <c r="IJ34" s="155"/>
-      <c r="IK34" s="155"/>
-      <c r="IL34" s="155"/>
-      <c r="IM34" s="155"/>
+      <c r="II34" s="157" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ34" s="157" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK34" s="157" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL34" s="157" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM34" s="157" t="s">
+        <v>237</v>
+      </c>
       <c r="IN34" s="155"/>
       <c r="IO34" s="155"/>
       <c r="IP34" s="155"/>
@@ -29268,11 +29780,21 @@
       <c r="IH35" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="II35" s="159"/>
-      <c r="IJ35" s="159"/>
-      <c r="IK35" s="159"/>
-      <c r="IL35" s="159"/>
-      <c r="IM35" s="159"/>
+      <c r="II35" s="161" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ35" s="161" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK35" s="161" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL35" s="161" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM35" s="161" t="s">
+        <v>237</v>
+      </c>
       <c r="IN35" s="159"/>
       <c r="IO35" s="159"/>
       <c r="IP35" s="159"/>
@@ -30007,11 +30529,21 @@
       <c r="IH36" s="165" t="s">
         <v>232</v>
       </c>
-      <c r="II36" s="163"/>
-      <c r="IJ36" s="163"/>
-      <c r="IK36" s="163"/>
-      <c r="IL36" s="163"/>
-      <c r="IM36" s="163"/>
+      <c r="II36" s="165" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ36" s="165" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK36" s="165" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL36" s="165" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM36" s="165" t="s">
+        <v>237</v>
+      </c>
       <c r="IN36" s="163"/>
       <c r="IO36" s="163"/>
       <c r="IP36" s="163"/>
@@ -30746,11 +31278,21 @@
       <c r="IH37" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="II37" s="167"/>
-      <c r="IJ37" s="167"/>
-      <c r="IK37" s="167"/>
-      <c r="IL37" s="167"/>
-      <c r="IM37" s="167"/>
+      <c r="II37" s="169" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ37" s="169" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK37" s="169" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL37" s="169" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM37" s="169" t="s">
+        <v>237</v>
+      </c>
       <c r="IN37" s="167"/>
       <c r="IO37" s="167"/>
       <c r="IP37" s="167"/>
@@ -31485,11 +32027,21 @@
       <c r="IH38" s="173" t="s">
         <v>232</v>
       </c>
-      <c r="II38" s="171"/>
-      <c r="IJ38" s="171"/>
-      <c r="IK38" s="171"/>
-      <c r="IL38" s="171"/>
-      <c r="IM38" s="171"/>
+      <c r="II38" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ38" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK38" s="173" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL38" s="173" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM38" s="173" t="s">
+        <v>237</v>
+      </c>
       <c r="IN38" s="171"/>
       <c r="IO38" s="171"/>
       <c r="IP38" s="171"/>
@@ -32224,11 +32776,21 @@
       <c r="IH39" s="177" t="s">
         <v>232</v>
       </c>
-      <c r="II39" s="175"/>
-      <c r="IJ39" s="175"/>
-      <c r="IK39" s="175"/>
-      <c r="IL39" s="175"/>
-      <c r="IM39" s="175"/>
+      <c r="II39" s="177" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ39" s="177" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK39" s="177" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL39" s="177" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM39" s="177" t="s">
+        <v>237</v>
+      </c>
       <c r="IN39" s="175"/>
       <c r="IO39" s="175"/>
       <c r="IP39" s="175"/>
@@ -32963,11 +33525,21 @@
       <c r="IH40" s="181" t="s">
         <v>232</v>
       </c>
-      <c r="II40" s="179"/>
-      <c r="IJ40" s="179"/>
-      <c r="IK40" s="179"/>
-      <c r="IL40" s="179"/>
-      <c r="IM40" s="179"/>
+      <c r="II40" s="181" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ40" s="181" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK40" s="181" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL40" s="181" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM40" s="181" t="s">
+        <v>237</v>
+      </c>
       <c r="IN40" s="179"/>
       <c r="IO40" s="179"/>
       <c r="IP40" s="179"/>
@@ -33702,11 +34274,21 @@
       <c r="IH41" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="II41" s="183"/>
-      <c r="IJ41" s="183"/>
-      <c r="IK41" s="183"/>
-      <c r="IL41" s="183"/>
-      <c r="IM41" s="183"/>
+      <c r="II41" s="185" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ41" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK41" s="185" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL41" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM41" s="185" t="s">
+        <v>237</v>
+      </c>
       <c r="IN41" s="183"/>
       <c r="IO41" s="183"/>
       <c r="IP41" s="183"/>
@@ -34441,11 +35023,21 @@
       <c r="IH42" s="189" t="s">
         <v>232</v>
       </c>
-      <c r="II42" s="187"/>
-      <c r="IJ42" s="187"/>
-      <c r="IK42" s="187"/>
-      <c r="IL42" s="187"/>
-      <c r="IM42" s="187"/>
+      <c r="II42" s="189" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ42" s="189" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK42" s="189" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL42" s="189" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM42" s="189" t="s">
+        <v>237</v>
+      </c>
       <c r="IN42" s="187"/>
       <c r="IO42" s="187"/>
       <c r="IP42" s="187"/>
@@ -35180,11 +35772,21 @@
       <c r="IH43" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="II43" s="191"/>
-      <c r="IJ43" s="191"/>
-      <c r="IK43" s="191"/>
-      <c r="IL43" s="191"/>
-      <c r="IM43" s="191"/>
+      <c r="II43" s="193" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ43" s="193" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK43" s="193" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL43" s="193" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM43" s="193" t="s">
+        <v>237</v>
+      </c>
       <c r="IN43" s="191"/>
       <c r="IO43" s="191"/>
       <c r="IP43" s="191"/>
@@ -35919,11 +36521,21 @@
       <c r="IH44" s="197" t="s">
         <v>232</v>
       </c>
-      <c r="II44" s="195"/>
-      <c r="IJ44" s="195"/>
-      <c r="IK44" s="195"/>
-      <c r="IL44" s="195"/>
-      <c r="IM44" s="195"/>
+      <c r="II44" s="197" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ44" s="197" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK44" s="197" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL44" s="197" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM44" s="197" t="s">
+        <v>237</v>
+      </c>
       <c r="IN44" s="195"/>
       <c r="IO44" s="195"/>
       <c r="IP44" s="195"/>
@@ -36658,11 +37270,21 @@
       <c r="IH45" s="201" t="s">
         <v>232</v>
       </c>
-      <c r="II45" s="199"/>
-      <c r="IJ45" s="199"/>
-      <c r="IK45" s="199"/>
-      <c r="IL45" s="199"/>
-      <c r="IM45" s="199"/>
+      <c r="II45" s="201" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ45" s="201" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK45" s="201" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL45" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM45" s="201" t="s">
+        <v>237</v>
+      </c>
       <c r="IN45" s="199"/>
       <c r="IO45" s="199"/>
       <c r="IP45" s="199"/>
@@ -37397,11 +38019,21 @@
       <c r="IH46" s="201" t="s">
         <v>232</v>
       </c>
-      <c r="II46" s="199"/>
-      <c r="IJ46" s="199"/>
-      <c r="IK46" s="199"/>
-      <c r="IL46" s="199"/>
-      <c r="IM46" s="199"/>
+      <c r="II46" s="201" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ46" s="201" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK46" s="201" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL46" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM46" s="201" t="s">
+        <v>237</v>
+      </c>
       <c r="IN46" s="199"/>
       <c r="IO46" s="199"/>
       <c r="IP46" s="199"/>
@@ -38136,11 +38768,21 @@
       <c r="IH47" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="II47" s="203"/>
-      <c r="IJ47" s="203"/>
-      <c r="IK47" s="203"/>
-      <c r="IL47" s="203"/>
-      <c r="IM47" s="203"/>
+      <c r="II47" s="205" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ47" s="205" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK47" s="205" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL47" s="205" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM47" s="205" t="s">
+        <v>237</v>
+      </c>
       <c r="IN47" s="203"/>
       <c r="IO47" s="203"/>
       <c r="IP47" s="203"/>
@@ -38875,11 +39517,21 @@
       <c r="IH48" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="II48" s="203"/>
-      <c r="IJ48" s="203"/>
-      <c r="IK48" s="203"/>
-      <c r="IL48" s="203"/>
-      <c r="IM48" s="203"/>
+      <c r="II48" s="205" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ48" s="205" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK48" s="205" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL48" s="205" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM48" s="205" t="s">
+        <v>237</v>
+      </c>
       <c r="IN48" s="203"/>
       <c r="IO48" s="203"/>
       <c r="IP48" s="203"/>
@@ -39614,11 +40266,21 @@
       <c r="IH49" s="209" t="s">
         <v>232</v>
       </c>
-      <c r="II49" s="207"/>
-      <c r="IJ49" s="207"/>
-      <c r="IK49" s="207"/>
-      <c r="IL49" s="207"/>
-      <c r="IM49" s="207"/>
+      <c r="II49" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ49" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK49" s="209" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL49" s="209" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM49" s="209" t="s">
+        <v>237</v>
+      </c>
       <c r="IN49" s="207"/>
       <c r="IO49" s="207"/>
       <c r="IP49" s="207"/>
@@ -40353,11 +41015,21 @@
       <c r="IH50" s="209" t="s">
         <v>232</v>
       </c>
-      <c r="II50" s="207"/>
-      <c r="IJ50" s="207"/>
-      <c r="IK50" s="207"/>
-      <c r="IL50" s="207"/>
-      <c r="IM50" s="207"/>
+      <c r="II50" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ50" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK50" s="209" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL50" s="209" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM50" s="209" t="s">
+        <v>237</v>
+      </c>
       <c r="IN50" s="207"/>
       <c r="IO50" s="207"/>
       <c r="IP50" s="207"/>
@@ -41092,11 +41764,21 @@
       <c r="IH51" s="213" t="s">
         <v>232</v>
       </c>
-      <c r="II51" s="211"/>
-      <c r="IJ51" s="211"/>
-      <c r="IK51" s="211"/>
-      <c r="IL51" s="211"/>
-      <c r="IM51" s="211"/>
+      <c r="II51" s="213" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ51" s="213" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK51" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL51" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM51" s="213" t="s">
+        <v>237</v>
+      </c>
       <c r="IN51" s="211"/>
       <c r="IO51" s="211"/>
       <c r="IP51" s="211"/>
@@ -41831,11 +42513,21 @@
       <c r="IH52" s="213" t="s">
         <v>232</v>
       </c>
-      <c r="II52" s="211"/>
-      <c r="IJ52" s="211"/>
-      <c r="IK52" s="211"/>
-      <c r="IL52" s="211"/>
-      <c r="IM52" s="211"/>
+      <c r="II52" s="213" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ52" s="213" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK52" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL52" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM52" s="213" t="s">
+        <v>237</v>
+      </c>
       <c r="IN52" s="211"/>
       <c r="IO52" s="211"/>
       <c r="IP52" s="211"/>
@@ -42570,11 +43262,21 @@
       <c r="IH53" s="218" t="s">
         <v>232</v>
       </c>
-      <c r="II53" s="216"/>
-      <c r="IJ53" s="216"/>
-      <c r="IK53" s="216"/>
-      <c r="IL53" s="216"/>
-      <c r="IM53" s="216"/>
+      <c r="II53" s="218" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ53" s="218" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK53" s="218" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL53" s="218" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM53" s="218" t="s">
+        <v>237</v>
+      </c>
       <c r="IN53" s="216"/>
       <c r="IO53" s="216"/>
       <c r="IP53" s="216"/>
@@ -43309,11 +44011,21 @@
       <c r="IH54" s="222" t="s">
         <v>232</v>
       </c>
-      <c r="II54" s="220"/>
-      <c r="IJ54" s="220"/>
-      <c r="IK54" s="220"/>
-      <c r="IL54" s="220"/>
-      <c r="IM54" s="220"/>
+      <c r="II54" s="222" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ54" s="222" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK54" s="222" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL54" s="222" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM54" s="222" t="s">
+        <v>237</v>
+      </c>
       <c r="IN54" s="220"/>
       <c r="IO54" s="220"/>
       <c r="IP54" s="220"/>
@@ -44048,11 +44760,21 @@
       <c r="IH55" s="226" t="s">
         <v>232</v>
       </c>
-      <c r="II55" s="224"/>
-      <c r="IJ55" s="224"/>
-      <c r="IK55" s="224"/>
-      <c r="IL55" s="224"/>
-      <c r="IM55" s="224"/>
+      <c r="II55" s="226" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ55" s="226" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK55" s="226" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL55" s="226" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM55" s="226" t="s">
+        <v>237</v>
+      </c>
       <c r="IN55" s="224"/>
       <c r="IO55" s="224"/>
       <c r="IP55" s="224"/>
@@ -44787,11 +45509,21 @@
       <c r="IH56" s="230" t="s">
         <v>232</v>
       </c>
-      <c r="II56" s="228"/>
-      <c r="IJ56" s="228"/>
-      <c r="IK56" s="228"/>
-      <c r="IL56" s="228"/>
-      <c r="IM56" s="228"/>
+      <c r="II56" s="230" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ56" s="230" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK56" s="230" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL56" s="230" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM56" s="230" t="s">
+        <v>237</v>
+      </c>
       <c r="IN56" s="228"/>
       <c r="IO56" s="228"/>
       <c r="IP56" s="228"/>
@@ -45526,11 +46258,21 @@
       <c r="IH57" s="234" t="s">
         <v>232</v>
       </c>
-      <c r="II57" s="232"/>
-      <c r="IJ57" s="232"/>
-      <c r="IK57" s="232"/>
-      <c r="IL57" s="232"/>
-      <c r="IM57" s="232"/>
+      <c r="II57" s="234" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ57" s="234" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK57" s="234" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL57" s="234" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM57" s="234" t="s">
+        <v>237</v>
+      </c>
       <c r="IN57" s="232"/>
       <c r="IO57" s="232"/>
       <c r="IP57" s="232"/>
@@ -46265,11 +47007,21 @@
       <c r="IH58" s="238" t="s">
         <v>232</v>
       </c>
-      <c r="II58" s="236"/>
-      <c r="IJ58" s="236"/>
-      <c r="IK58" s="236"/>
-      <c r="IL58" s="236"/>
-      <c r="IM58" s="236"/>
+      <c r="II58" s="238" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ58" s="238" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK58" s="238" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL58" s="238" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM58" s="238" t="s">
+        <v>237</v>
+      </c>
       <c r="IN58" s="236"/>
       <c r="IO58" s="236"/>
       <c r="IP58" s="236"/>
@@ -47004,11 +47756,21 @@
       <c r="IH59" s="242" t="s">
         <v>232</v>
       </c>
-      <c r="II59" s="240"/>
-      <c r="IJ59" s="240"/>
-      <c r="IK59" s="240"/>
-      <c r="IL59" s="240"/>
-      <c r="IM59" s="240"/>
+      <c r="II59" s="242" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ59" s="242" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK59" s="242" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL59" s="242" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM59" s="242" t="s">
+        <v>237</v>
+      </c>
       <c r="IN59" s="240"/>
       <c r="IO59" s="240"/>
       <c r="IP59" s="240"/>
@@ -47743,11 +48505,21 @@
       <c r="IH60" s="246" t="s">
         <v>232</v>
       </c>
-      <c r="II60" s="244"/>
-      <c r="IJ60" s="244"/>
-      <c r="IK60" s="244"/>
-      <c r="IL60" s="244"/>
-      <c r="IM60" s="244"/>
+      <c r="II60" s="246" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ60" s="246" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK60" s="246" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL60" s="246" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM60" s="246" t="s">
+        <v>237</v>
+      </c>
       <c r="IN60" s="244"/>
       <c r="IO60" s="244"/>
       <c r="IP60" s="244"/>
@@ -48482,6 +49254,21 @@
       <c r="IH61" s="169" t="s">
         <v>232</v>
       </c>
+      <c r="II61" s="169" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ61" s="169" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK61" s="169" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL61" s="169" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM61" s="169" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="62" spans="1:253" s="171" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="171" t="s">
@@ -49210,6 +49997,21 @@
       <c r="IH62" s="173" t="s">
         <v>232</v>
       </c>
+      <c r="II62" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ62" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK62" s="173" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL62" s="173" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM62" s="173" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="63" spans="1:253" s="175" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="175" t="s">
@@ -49938,6 +50740,21 @@
       <c r="IH63" s="177" t="s">
         <v>232</v>
       </c>
+      <c r="II63" s="177" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ63" s="177" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK63" s="177" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL63" s="177" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM63" s="177" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="64" spans="1:253" s="179" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="179" t="s">
@@ -50666,8 +51483,23 @@
       <c r="IH64" s="181" t="s">
         <v>232</v>
       </c>
+      <c r="II64" s="181" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ64" s="181" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK64" s="181" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL64" s="181" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM64" s="181" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="65" spans="1:242" s="247" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:247" s="247" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="247" t="s">
         <v>0</v>
       </c>
@@ -51394,8 +52226,23 @@
       <c r="IH65" s="249" t="s">
         <v>232</v>
       </c>
+      <c r="II65" s="249" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ65" s="249" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK65" s="249" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL65" s="249" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM65" s="249" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="66" spans="1:242" s="250" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:247" s="250" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="250" t="s">
         <v>0</v>
       </c>
@@ -52122,8 +52969,23 @@
       <c r="IH66" s="252" t="s">
         <v>232</v>
       </c>
+      <c r="II66" s="252" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ66" s="252" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK66" s="252" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL66" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM66" s="252" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="67" spans="1:242" s="253" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:247" s="253" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="253" t="s">
         <v>0</v>
       </c>
@@ -52850,8 +53712,23 @@
       <c r="IH67" s="255" t="s">
         <v>232</v>
       </c>
+      <c r="II67" s="255" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ67" s="255" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK67" s="255" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL67" s="255" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM67" s="255" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="68" spans="1:242" s="256" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:247" s="256" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="256" t="s">
         <v>0</v>
       </c>
@@ -53578,8 +54455,23 @@
       <c r="IH68" s="258" t="s">
         <v>232</v>
       </c>
+      <c r="II68" s="258" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ68" s="258" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK68" s="258" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL68" s="258" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM68" s="258" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="69" spans="1:242" s="259" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:247" s="259" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="259" t="s">
         <v>0</v>
       </c>
@@ -54306,8 +55198,23 @@
       <c r="IH69" s="262" t="s">
         <v>232</v>
       </c>
+      <c r="II69" s="262" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ69" s="262" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK69" s="262" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL69" s="262" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM69" s="262" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="70" spans="1:242" s="263" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:247" s="263" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="263" t="s">
         <v>0</v>
       </c>
@@ -55034,8 +55941,23 @@
       <c r="IH70" s="266" t="s">
         <v>232</v>
       </c>
+      <c r="II70" s="266" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ70" s="266" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK70" s="266" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL70" s="266" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM70" s="266" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="71" spans="1:242" s="267" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:247" s="267" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="267" t="s">
         <v>0</v>
       </c>
@@ -55762,8 +56684,23 @@
       <c r="IH71" s="270" t="s">
         <v>232</v>
       </c>
+      <c r="II71" s="270" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ71" s="270" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK71" s="270" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL71" s="270" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM71" s="270" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="72" spans="1:242" s="271" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:247" s="271" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="271" t="s">
         <v>0</v>
       </c>
@@ -56490,8 +57427,23 @@
       <c r="IH72" s="274" t="s">
         <v>232</v>
       </c>
+      <c r="II72" s="274" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ72" s="274" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK72" s="274" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL72" s="274" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM72" s="274" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="73" spans="1:242" s="275" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:247" s="275" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="275" t="s">
         <v>0</v>
       </c>
@@ -57218,8 +58170,23 @@
       <c r="IH73" s="277" t="s">
         <v>232</v>
       </c>
+      <c r="II73" s="350" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ73" s="350" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK73" s="350" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL73" s="350" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM73" s="350" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="74" spans="1:242" s="278" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:247" s="278" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="278" t="s">
         <v>0</v>
       </c>
@@ -57946,8 +58913,23 @@
       <c r="IH74" s="280" t="s">
         <v>232</v>
       </c>
+      <c r="II74" s="351" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ74" s="351" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK74" s="351" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL74" s="351" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM74" s="351" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="75" spans="1:242" s="281" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:247" s="281" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="281" t="s">
         <v>0</v>
       </c>
@@ -58674,8 +59656,23 @@
       <c r="IH75" s="283" t="s">
         <v>232</v>
       </c>
+      <c r="II75" s="352" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ75" s="352" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK75" s="352" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL75" s="352" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM75" s="352" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="76" spans="1:242" s="284" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:247" s="284" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="284" t="s">
         <v>0</v>
       </c>
@@ -59402,8 +60399,23 @@
       <c r="IH76" s="286" t="s">
         <v>232</v>
       </c>
+      <c r="II76" s="353" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ76" s="353" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK76" s="353" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL76" s="353" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM76" s="353" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="77" spans="1:242" s="287" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:247" s="287" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="287" t="s">
         <v>0</v>
       </c>
@@ -60130,8 +61142,23 @@
       <c r="IH77" s="290" t="s">
         <v>232</v>
       </c>
+      <c r="II77" s="290" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ77" s="290" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK77" s="290" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL77" s="290" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM77" s="290" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="78" spans="1:242" s="291" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:247" s="291" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="291" t="s">
         <v>0</v>
       </c>
@@ -60858,8 +61885,23 @@
       <c r="IH78" s="294" t="s">
         <v>232</v>
       </c>
+      <c r="II78" s="294" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ78" s="294" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK78" s="294" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL78" s="294" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM78" s="294" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="79" spans="1:242" s="295" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:247" s="295" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="295" t="s">
         <v>0</v>
       </c>
@@ -61586,8 +62628,23 @@
       <c r="IH79" s="298" t="s">
         <v>232</v>
       </c>
+      <c r="II79" s="298" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ79" s="298" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK79" s="298" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL79" s="298" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM79" s="298" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="80" spans="1:242" s="299" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:247" s="299" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="299" t="s">
         <v>0</v>
       </c>
@@ -62313,6 +63370,21 @@
       </c>
       <c r="IH80" s="302" t="s">
         <v>232</v>
+      </c>
+      <c r="II80" s="302" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ80" s="302" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK80" s="302" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL80" s="302" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM80" s="302" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:253" s="183" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -63042,6 +64114,21 @@
       <c r="IH81" s="185" t="s">
         <v>232</v>
       </c>
+      <c r="II81" s="185" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ81" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK81" s="185" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL81" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM81" s="185" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="82" spans="1:253" s="187" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="187" t="s">
@@ -63770,6 +64857,21 @@
       <c r="IH82" s="189" t="s">
         <v>232</v>
       </c>
+      <c r="II82" s="189" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ82" s="189" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK82" s="189" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL82" s="189" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM82" s="189" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="83" spans="1:253" s="195" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="195" t="s">
@@ -64498,6 +65600,21 @@
       <c r="IH83" s="197" t="s">
         <v>232</v>
       </c>
+      <c r="II83" s="197" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ83" s="197" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK83" s="197" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL83" s="197" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM83" s="197" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="84" spans="1:253" s="191" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="191" t="s">
@@ -65226,6 +66343,21 @@
       <c r="IH84" s="193" t="s">
         <v>232</v>
       </c>
+      <c r="II84" s="193" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ84" s="193" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK84" s="193" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL84" s="193" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM84" s="193" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="85" spans="1:253" s="22" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
@@ -65954,11 +67086,21 @@
       <c r="IH85" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="II85" s="19"/>
-      <c r="IJ85" s="19"/>
-      <c r="IK85" s="19"/>
-      <c r="IL85" s="19"/>
-      <c r="IM85" s="19"/>
+      <c r="II85" s="326" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ85" s="326" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK85" s="326" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL85" s="326" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM85" s="326" t="s">
+        <v>237</v>
+      </c>
       <c r="IN85" s="19"/>
       <c r="IO85" s="19"/>
       <c r="IP85" s="19"/>
@@ -66693,11 +67835,21 @@
       <c r="IH86" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="II86" s="24"/>
-      <c r="IJ86" s="24"/>
-      <c r="IK86" s="24"/>
-      <c r="IL86" s="24"/>
-      <c r="IM86" s="24"/>
+      <c r="II86" s="327" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ86" s="327" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK86" s="327" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL86" s="327" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM86" s="327" t="s">
+        <v>237</v>
+      </c>
       <c r="IN86" s="24"/>
       <c r="IO86" s="24"/>
       <c r="IP86" s="24"/>
@@ -67432,11 +68584,21 @@
       <c r="IH87" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="II87" s="28"/>
-      <c r="IJ87" s="28"/>
-      <c r="IK87" s="28"/>
-      <c r="IL87" s="28"/>
-      <c r="IM87" s="28"/>
+      <c r="II87" s="328" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ87" s="328" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK87" s="328" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL87" s="328" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM87" s="328" t="s">
+        <v>237</v>
+      </c>
       <c r="IN87" s="28"/>
       <c r="IO87" s="28"/>
       <c r="IP87" s="28"/>
@@ -68171,11 +69333,21 @@
       <c r="IH88" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="II88" s="32"/>
-      <c r="IJ88" s="32"/>
-      <c r="IK88" s="32"/>
-      <c r="IL88" s="32"/>
-      <c r="IM88" s="32"/>
+      <c r="II88" s="329" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ88" s="329" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK88" s="329" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL88" s="329" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM88" s="329" t="s">
+        <v>237</v>
+      </c>
       <c r="IN88" s="32"/>
       <c r="IO88" s="32"/>
       <c r="IP88" s="32"/>
@@ -68910,11 +70082,21 @@
       <c r="IH89" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="II89" s="36"/>
-      <c r="IJ89" s="36"/>
-      <c r="IK89" s="36"/>
-      <c r="IL89" s="36"/>
-      <c r="IM89" s="36"/>
+      <c r="II89" s="330" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ89" s="330" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK89" s="330" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL89" s="330" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM89" s="330" t="s">
+        <v>237</v>
+      </c>
       <c r="IN89" s="36"/>
       <c r="IO89" s="36"/>
       <c r="IP89" s="36"/>
@@ -69649,11 +70831,21 @@
       <c r="IH90" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="II90" s="41"/>
-      <c r="IJ90" s="41"/>
-      <c r="IK90" s="41"/>
-      <c r="IL90" s="41"/>
-      <c r="IM90" s="41"/>
+      <c r="II90" s="331" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ90" s="331" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK90" s="331" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL90" s="331" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM90" s="331" t="s">
+        <v>237</v>
+      </c>
       <c r="IN90" s="41"/>
       <c r="IO90" s="41"/>
       <c r="IP90" s="41"/>
@@ -70388,11 +71580,21 @@
       <c r="IH91" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="II91" s="46"/>
-      <c r="IJ91" s="46"/>
-      <c r="IK91" s="46"/>
-      <c r="IL91" s="46"/>
-      <c r="IM91" s="46"/>
+      <c r="II91" s="332" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ91" s="332" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK91" s="332" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL91" s="332" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM91" s="332" t="s">
+        <v>237</v>
+      </c>
       <c r="IN91" s="46"/>
       <c r="IO91" s="46"/>
       <c r="IP91" s="46"/>
@@ -71127,11 +72329,21 @@
       <c r="IH92" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="II92" s="51"/>
-      <c r="IJ92" s="51"/>
-      <c r="IK92" s="51"/>
-      <c r="IL92" s="51"/>
-      <c r="IM92" s="51"/>
+      <c r="II92" s="333" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ92" s="333" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK92" s="333" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL92" s="333" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM92" s="333" t="s">
+        <v>237</v>
+      </c>
       <c r="IN92" s="51"/>
       <c r="IO92" s="51"/>
       <c r="IP92" s="51"/>
@@ -71866,6 +73078,21 @@
       <c r="IH93" s="262" t="s">
         <v>232</v>
       </c>
+      <c r="II93" s="262" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ93" s="262" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK93" s="262" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL93" s="262" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM93" s="262" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="94" spans="1:253" s="263" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="263" t="s">
@@ -72594,6 +73821,21 @@
       <c r="IH94" s="266" t="s">
         <v>232</v>
       </c>
+      <c r="II94" s="266" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ94" s="266" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK94" s="266" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL94" s="266" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM94" s="266" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="95" spans="1:253" s="267" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="267" t="s">
@@ -73322,6 +74564,21 @@
       <c r="IH95" s="270" t="s">
         <v>232</v>
       </c>
+      <c r="II95" s="270" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ95" s="270" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK95" s="270" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL95" s="270" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM95" s="270" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="96" spans="1:253" s="271" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="271" t="s">
@@ -74050,8 +75307,23 @@
       <c r="IH96" s="274" t="s">
         <v>232</v>
       </c>
+      <c r="II96" s="274" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ96" s="274" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK96" s="274" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL96" s="274" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM96" s="274" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="97" spans="1:242" s="306" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:247" s="306" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="306" t="s">
         <v>0</v>
       </c>
@@ -74778,8 +76050,23 @@
       <c r="IH97" s="309" t="s">
         <v>232</v>
       </c>
+      <c r="II97" s="309" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ97" s="309" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK97" s="309" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL97" s="309" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM97" s="309" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="98" spans="1:242" s="310" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:247" s="310" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="310" t="s">
         <v>0</v>
       </c>
@@ -75506,8 +76793,23 @@
       <c r="IH98" s="313" t="s">
         <v>232</v>
       </c>
+      <c r="II98" s="313" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ98" s="313" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK98" s="313" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL98" s="313" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM98" s="313" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="99" spans="1:242" s="314" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:247" s="314" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="314" t="s">
         <v>0</v>
       </c>
@@ -76234,8 +77536,23 @@
       <c r="IH99" s="317" t="s">
         <v>232</v>
       </c>
+      <c r="II99" s="317" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ99" s="317" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK99" s="317" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL99" s="317" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM99" s="317" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="100" spans="1:242" s="318" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:247" s="318" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="318" t="s">
         <v>0</v>
       </c>
@@ -76961,6 +78278,21 @@
       </c>
       <c r="IH100" s="321" t="s">
         <v>232</v>
+      </c>
+      <c r="II100" s="321" t="s">
+        <v>233</v>
+      </c>
+      <c r="IJ100" s="321" t="s">
+        <v>234</v>
+      </c>
+      <c r="IK100" s="321" t="s">
+        <v>235</v>
+      </c>
+      <c r="IL100" s="321" t="s">
+        <v>236</v>
+      </c>
+      <c r="IM100" s="321" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
